--- a/MODEA_results/Pareto_results.xlsx
+++ b/MODEA_results/Pareto_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MODEA_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544CCC53-DA3C-40C0-A19A-62508048912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE6737-40B9-4AB3-A100-AF36FCBA532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{A43D2B2D-FC12-45ED-AAC6-128933125C7B}"/>
   </bookViews>
@@ -403,388 +403,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962FBC52-CD99-4157-8C53-985811727B3A}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>
@@ -795,388 +891,484 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CE68A2-7413-4587-BD64-4142DE0BC0B9}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>
@@ -1187,388 +1379,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A879C00-331A-40F3-9D47-AD5EA5422D72}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>
@@ -1579,388 +1867,484 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCE6D25-5068-4FEF-B531-51E6B85812CA}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>
@@ -1971,388 +2355,484 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C828672-C364-45E9-BC6E-8A66DA3EA532}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>
@@ -2363,388 +2843,484 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235E228-F655-4B98-9342-C109703F50B1}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>
@@ -2755,388 +3331,484 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F719D7D3-CE08-415E-9241-E6B2BE52FFC5}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>
@@ -3147,388 +3819,484 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4308BEA-A327-4735-A5C1-BEC97344FD13}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>
@@ -3539,388 +4307,484 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EF315B-ADE7-4246-A924-28FB73A3F779}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>
@@ -3931,388 +4795,484 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7AED76-C580-42D6-BE34-BA3A4EF35C7F}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>429887.50013492064</v>
+        <v>436043.00412777776</v>
       </c>
       <c r="B1">
-        <v>29901.548485872605</v>
+        <v>61594.370810941662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>429847.70108492067</v>
+        <v>435962.3841944444</v>
       </c>
       <c r="B2">
-        <v>29901.540505965077</v>
+        <v>61586.64928227826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>439082.18767103174</v>
+        <v>437380.70937777776</v>
       </c>
       <c r="B3">
-        <v>29901.814920547942</v>
+        <v>61644.747366209522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>439042.38862103177</v>
+        <v>437253.36777777778</v>
       </c>
       <c r="B4">
-        <v>29901.806940640414</v>
+        <v>61635.172252681652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>441781.76541825396</v>
+        <v>436861.64982777776</v>
       </c>
       <c r="B5">
-        <v>29901.951312044355</v>
+        <v>61606.343573967861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>441869.85188492062</v>
+        <v>436821.85077777778</v>
       </c>
       <c r="B6">
-        <v>29901.990052607442</v>
+        <v>61598.363666442165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>441435.65461825399</v>
+        <v>437524.08037777781</v>
       </c>
       <c r="B7">
-        <v>29901.946335950463</v>
+        <v>61662.080703634747</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>420249.16752658726</v>
+        <v>442190.58905476192</v>
       </c>
       <c r="B8">
-        <v>29901.34315119735</v>
+        <v>61936.880358084483</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>419836.2497765873</v>
+        <v>442150.79000476189</v>
       </c>
       <c r="B9">
-        <v>29901.340498306574</v>
+        <v>61928.900450558787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>420817.24689325399</v>
+        <v>441037.41153809521</v>
       </c>
       <c r="B10">
-        <v>29901.3588234868</v>
+        <v>61802.710227108728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>419042.07912658725</v>
+        <v>442021.8826547619</v>
       </c>
       <c r="B11">
-        <v>29901.339369816647</v>
+        <v>61890.418266337459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>420990.94287658727</v>
+        <v>440956.79160476191</v>
       </c>
       <c r="B12">
-        <v>29901.359804523778</v>
+        <v>61794.988698445326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>441149.15101825399</v>
+        <v>439100.03130277782</v>
       </c>
       <c r="B13">
-        <v>29901.942776338557</v>
+        <v>61713.379723459046</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>421629.77895634924</v>
+        <v>439265.87756944442</v>
       </c>
       <c r="B14">
-        <v>29901.395166680275</v>
+        <v>61731.500860191569</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>421589.97990634921</v>
+        <v>438868.94079920638</v>
       </c>
       <c r="B15">
-        <v>29901.387186772747</v>
+        <v>61688.753205025649</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>425297.58038968255</v>
+        <v>438166.07362777775</v>
       </c>
       <c r="B16">
-        <v>29901.486080611754</v>
+        <v>61670.060611160443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>433760.21795119048</v>
+        <v>425346.9090051587</v>
       </c>
       <c r="B17">
-        <v>29901.580118925303</v>
+        <v>61250.921865394412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>432604.02206785721</v>
+        <v>423085.07908849209</v>
       </c>
       <c r="B18">
-        <v>29901.571688050895</v>
+        <v>61194.778045332379</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>432331.45081785717</v>
+        <v>424958.97466071427</v>
       </c>
       <c r="B19">
-        <v>29901.555288143529</v>
+        <v>61233.038070277471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>431985.34001785715</v>
+        <v>425079.61133849208</v>
       </c>
       <c r="B20">
-        <v>29901.550312049636</v>
+        <v>61244.658750362403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>432665.17511785717</v>
+        <v>424847.26510515873</v>
       </c>
       <c r="B21">
-        <v>29901.576620599997</v>
+        <v>61216.671166094282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433903.58895119047</v>
+        <v>422817.78142182541</v>
       </c>
       <c r="B22">
-        <v>29901.597452262729</v>
+        <v>61188.514930300356</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>436916.97746547626</v>
+        <v>424766.64517182537</v>
       </c>
       <c r="B23">
-        <v>29901.69174712478</v>
+        <v>61208.94963743088</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>437005.06393214292</v>
+        <v>429213.40347182541</v>
       </c>
       <c r="B24">
-        <v>29901.730487687866</v>
+        <v>61278.396936375386</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>436246.62785119051</v>
+        <v>429173.60442182538</v>
       </c>
       <c r="B25">
-        <v>29901.67438894539</v>
+        <v>61270.41702884969</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435206.31715119048</v>
+        <v>423963.75160515867</v>
       </c>
       <c r="B26">
-        <v>29901.618026959481</v>
+        <v>61203.788926366775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435349.68815119052</v>
+        <v>424944.74872182537</v>
       </c>
       <c r="B27">
-        <v>29901.635360296907</v>
+        <v>61222.114106593559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>438276.38508769847</v>
+        <v>423883.13167182542</v>
       </c>
       <c r="B28">
-        <v>29901.772910561391</v>
+        <v>61196.067397703373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>437930.27428769844</v>
+        <v>424867.85127182538</v>
       </c>
       <c r="B29">
-        <v>29901.767934467498</v>
+        <v>61217.094371080311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>437818.56473214284</v>
+        <v>432839.62528015877</v>
       </c>
       <c r="B30">
-        <v>29901.751567563315</v>
+        <v>61444.638213322287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>440138.1141154762</v>
+        <v>432982.99628015875</v>
       </c>
       <c r="B31">
-        <v>29901.873227604578</v>
+        <v>61461.971550747505</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>440038.23211547622</v>
+        <v>434079.57959999994</v>
       </c>
       <c r="B32">
-        <v>29901.86591522122</v>
+        <v>61497.616103456356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>436059.61700119049</v>
+        <v>434039.78054999997</v>
       </c>
       <c r="B33">
-        <v>29901.647086742458</v>
+        <v>61489.63619593066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>436019.81795119052</v>
+        <v>433928.07099444448</v>
       </c>
       <c r="B34">
-        <v>29901.639106834929</v>
+        <v>61473.269291747471</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>428979.92339880951</v>
+        <v>433346.54017777776</v>
       </c>
       <c r="B35">
-        <v>29901.539118505512</v>
+        <v>61464.54818183399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>428853.38730992062</v>
+        <v>435374.17019444448</v>
       </c>
       <c r="B36">
-        <v>29901.536946353172</v>
+        <v>61511.177325924749</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>428338.33519880951</v>
+        <v>435850.05962142861</v>
       </c>
       <c r="B37">
-        <v>29901.533487239922</v>
+        <v>61557.845378585203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>426094.72796190478</v>
+        <v>435603.37556587299</v>
       </c>
       <c r="B38">
-        <v>29901.520396100637</v>
+        <v>61520.777470151603</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>427072.87310476188</v>
+        <v>434900.50839444442</v>
       </c>
       <c r="B39">
-        <v>29901.527230502259</v>
+        <v>61502.084876286397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>425899.33512301592</v>
+        <v>431211.22092658724</v>
       </c>
       <c r="B40">
-        <v>29901.518223948297</v>
+        <v>61314.302702448338</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>425799.45312301588</v>
+        <v>431354.59192658728</v>
       </c>
       <c r="B41">
-        <v>29901.510911564939</v>
+        <v>61331.636039873563</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>425372.0716230158</v>
+        <v>431641.82482658728</v>
       </c>
       <c r="B42">
-        <v>29901.489586741412</v>
+        <v>61353.825304896927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>423893.54468968255</v>
+        <v>429620.51700992062</v>
       </c>
       <c r="B43">
-        <v>29901.47340444486</v>
+        <v>61279.13813876317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>423597.19368968252</v>
+        <v>428057.98907658726</v>
       </c>
       <c r="B44">
-        <v>29901.459779865745</v>
+        <v>61252.091848622906</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>422978.51163968252</v>
+        <v>430641.31317658734</v>
       </c>
       <c r="B45">
-        <v>29901.438403864486</v>
+        <v>61305.44322651565</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>422866.80208412698</v>
+        <v>430601.51412658731</v>
       </c>
       <c r="B46">
-        <v>29901.422036960303</v>
+        <v>61297.463318989954</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>421869.67675079359</v>
+        <v>431846.42732658726</v>
       </c>
       <c r="B47">
-        <v>29901.413423246155</v>
+        <v>61390.958614235373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>431787.40862658725</v>
+      </c>
+      <c r="B48">
+        <v>61383.046954414538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>429123.33932658727</v>
+      </c>
+      <c r="B49">
+        <v>61259.644316025922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>432244.14762658731</v>
+      </c>
+      <c r="B50">
+        <v>61393.47345276444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>432559.42325158732</v>
+      </c>
+      <c r="B51">
+        <v>61415.416563804676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>428966.82807658729</v>
+      </c>
+      <c r="B52">
+        <v>61259.486987606899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>441644.38171031745</v>
+      </c>
+      <c r="B53">
+        <v>61883.105882979253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>441632.55415476189</v>
+      </c>
+      <c r="B54">
+        <v>61874.05136215427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>441532.67215476191</v>
+      </c>
+      <c r="B55">
+        <v>61866.738978796064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>441178.78811031749</v>
+      </c>
+      <c r="B56">
+        <v>61853.044643082132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>441067.07855476183</v>
+      </c>
+      <c r="B57">
+        <v>61836.677738898943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>439877.62468492065</v>
+      </c>
+      <c r="B58">
+        <v>61766.911177201822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>439837.82563492062</v>
+      </c>
+      <c r="B59">
+        <v>61758.931269676126</v>
       </c>
     </row>
   </sheetData>

--- a/MODEA_results/Pareto_results.xlsx
+++ b/MODEA_results/Pareto_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MODEA_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE6737-40B9-4AB3-A100-AF36FCBA532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF57BCF1-E9B1-43D4-ACB8-AA451AE93F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{A43D2B2D-FC12-45ED-AAC6-128933125C7B}"/>
   </bookViews>
@@ -406,457 +406,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -894,457 +894,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,457 +1382,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1870,457 +1870,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2358,457 +2358,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2846,457 +2846,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3334,457 +3334,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3822,457 +3822,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4310,457 +4310,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4798,457 +4798,457 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B59"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>436043.00412777776</v>
+        <v>300364.03780595236</v>
       </c>
       <c r="B1">
-        <v>61594.370810941662</v>
+        <v>147590.29602662587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>435962.3841944444</v>
+        <v>300626.44331309525</v>
       </c>
       <c r="B2">
-        <v>61586.64928227826</v>
+        <v>147691.05195179299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>437380.70937777776</v>
+        <v>299569.00052579364</v>
       </c>
       <c r="B3">
-        <v>61644.747366209522</v>
+        <v>147407.83896225211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>437253.36777777778</v>
+        <v>299819.27692579367</v>
       </c>
       <c r="B4">
-        <v>61635.172252681652</v>
+        <v>147510.91416904959</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>436861.64982777776</v>
+        <v>299692.75018134923</v>
       </c>
       <c r="B5">
-        <v>61606.343573967861</v>
+        <v>147471.90911778554</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>436821.85077777778</v>
+        <v>299923.40102579363</v>
       </c>
       <c r="B6">
-        <v>61598.363666442165</v>
+        <v>147543.54769865266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>437524.08037777781</v>
+        <v>299727.67742579366</v>
       </c>
       <c r="B7">
-        <v>61662.080703634747</v>
+        <v>147493.6932124593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>442190.58905476192</v>
+        <v>300641.9631920635</v>
       </c>
       <c r="B8">
-        <v>61936.880358084483</v>
+        <v>147726.19197733403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>442150.79000476189</v>
+        <v>299983.76245595241</v>
       </c>
       <c r="B9">
-        <v>61928.900450558787</v>
+        <v>147570.44860396298</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>441037.41153809521</v>
+        <v>300443.38168531749</v>
       </c>
       <c r="B10">
-        <v>61802.710227108728</v>
+        <v>147626.29230279243</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>442021.8826547619</v>
+        <v>300746.76040952385</v>
       </c>
       <c r="B11">
-        <v>61890.418266337459</v>
+        <v>147781.50474635669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>440956.79160476191</v>
+        <v>300748.30693095236</v>
       </c>
       <c r="B12">
-        <v>61794.988698445326</v>
+        <v>147797.83660551973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>439100.03130277782</v>
+        <v>301965.38364960317</v>
       </c>
       <c r="B13">
-        <v>61713.379723459046</v>
+        <v>147845.58421497943</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>439265.87756944442</v>
+        <v>301884.40184960316</v>
       </c>
       <c r="B14">
-        <v>61731.500860191569</v>
+        <v>147829.06160815471</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>438868.94079920638</v>
+        <v>301722.59407817462</v>
       </c>
       <c r="B15">
-        <v>61688.753205025649</v>
+        <v>147819.24121665512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>438166.07362777775</v>
+        <v>305890.57114801585</v>
       </c>
       <c r="B16">
-        <v>61670.060611160443</v>
+        <v>149124.55647246537</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>425346.9090051587</v>
+        <v>305892.11766944441</v>
       </c>
       <c r="B17">
-        <v>61250.921865394412</v>
+        <v>149140.8883316284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>423085.07908849209</v>
+        <v>305790.83998055552</v>
       </c>
       <c r="B18">
-        <v>61194.778045332379</v>
+        <v>149122.20720728635</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>424958.97466071427</v>
+        <v>305622.20331388887</v>
       </c>
       <c r="B19">
-        <v>61233.038070277471</v>
+        <v>149113.80789152568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>425079.61133849208</v>
+        <v>306124.10704246035</v>
       </c>
       <c r="B20">
-        <v>61244.658750362403</v>
+        <v>149246.41917879877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>424847.26510515873</v>
+        <v>306351.05494246032</v>
       </c>
       <c r="B21">
-        <v>61216.671166094282</v>
+        <v>149315.48536734891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>422817.78142182541</v>
+        <v>306225.53224246035</v>
       </c>
       <c r="B22">
-        <v>61188.514930300356</v>
+        <v>149276.82730413412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>424766.64517182537</v>
+        <v>306219.10274246032</v>
       </c>
       <c r="B23">
-        <v>61208.94963743088</v>
+        <v>149260.81909003886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>429213.40347182541</v>
+        <v>305472.92556388886</v>
       </c>
       <c r="B24">
-        <v>61278.396936375386</v>
+        <v>149074.7819601837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>429173.60442182538</v>
+        <v>305316.10806388885</v>
       </c>
       <c r="B25">
-        <v>61270.41702884969</v>
+        <v>149022.54694987391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>423963.75160515867</v>
+        <v>305096.12441150792</v>
       </c>
       <c r="B26">
-        <v>61203.788926366775</v>
+        <v>148968.01598131991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>424944.74872182537</v>
+        <v>305143.4211972222</v>
       </c>
       <c r="B27">
-        <v>61222.114106593559</v>
+        <v>148975.99910706317</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>423883.13167182542</v>
+        <v>305348.25026388891</v>
       </c>
       <c r="B28">
-        <v>61196.067397703373</v>
+        <v>149070.05987638215</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>424867.85127182538</v>
+        <v>304975.63477301586</v>
       </c>
       <c r="B29">
-        <v>61217.094371080311</v>
+        <v>148821.87819713668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>432839.62528015877</v>
+        <v>305063.98380158731</v>
       </c>
       <c r="B30">
-        <v>61444.638213322287</v>
+        <v>148844.42050715198</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>432982.99628015875</v>
+        <v>304470.05782936508</v>
       </c>
       <c r="B31">
-        <v>61461.971550747505</v>
+        <v>148681.11646348843</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>434079.57959999994</v>
+        <v>304676.61173492065</v>
       </c>
       <c r="B32">
-        <v>61497.616103456356</v>
+        <v>148717.8739517967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>434039.78054999997</v>
+        <v>304710.80453492061</v>
       </c>
       <c r="B33">
-        <v>61489.63619593066</v>
+        <v>148733.20681469023</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>433928.07099444448</v>
+        <v>304233.17044047621</v>
       </c>
       <c r="B34">
-        <v>61473.269291747471</v>
+        <v>148666.51148818692</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>433346.54017777776</v>
+        <v>304198.04581547622</v>
       </c>
       <c r="B35">
-        <v>61464.54818183399</v>
+        <v>148643.26536997606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435374.17019444448</v>
+        <v>303451.54762896826</v>
       </c>
       <c r="B36">
-        <v>61511.177325924749</v>
+        <v>148312.46571798591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435850.05962142861</v>
+        <v>303507.03957896831</v>
       </c>
       <c r="B37">
-        <v>61557.845378585203</v>
+        <v>148375.5419625433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435603.37556587299</v>
+        <v>304075.31736944447</v>
       </c>
       <c r="B38">
-        <v>61520.777470151603</v>
+        <v>148494.8222198752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>434900.50839444442</v>
+        <v>304159.15076944447</v>
       </c>
       <c r="B39">
-        <v>61502.084876286397</v>
+        <v>148501.61287484967</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>431211.22092658724</v>
+        <v>304447.07021944446</v>
       </c>
       <c r="B40">
-        <v>61314.302702448338</v>
+        <v>148669.11696397368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>431354.59192658728</v>
+        <v>303068.23319801583</v>
       </c>
       <c r="B41">
-        <v>61331.636039873563</v>
+        <v>148223.21813542614</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>431641.82482658728</v>
+        <v>303219.76651944447</v>
       </c>
       <c r="B42">
-        <v>61353.825304896927</v>
+        <v>148262.67347733607</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>429620.51700992062</v>
+        <v>303069.77971944446</v>
       </c>
       <c r="B43">
-        <v>61279.13813876317</v>
+        <v>148239.54999458918</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>428057.98907658726</v>
+        <v>303322.09671944444</v>
       </c>
       <c r="B44">
-        <v>61252.091848622906</v>
+        <v>148272.90536123083</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>430641.31317658734</v>
+        <v>302750.1818543651</v>
       </c>
       <c r="B45">
-        <v>61305.44322651565</v>
+        <v>148158.24560013818</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>430601.51412658731</v>
+        <v>302820.194943254</v>
       </c>
       <c r="B46">
-        <v>61297.463318989954</v>
+        <v>148181.27062231523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>431846.42732658726</v>
+        <v>303517.95894722221</v>
       </c>
       <c r="B47">
-        <v>61390.958614235373</v>
+        <v>148455.15574066452</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>431787.40862658725</v>
+        <v>303560.38663293654</v>
       </c>
       <c r="B48">
-        <v>61383.046954414538</v>
+        <v>148471.67834748924</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>429123.33932658727</v>
+        <v>303553.95713293651</v>
       </c>
       <c r="B49">
-        <v>61259.644316025922</v>
+        <v>148455.67013339399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>432244.14762658731</v>
+        <v>302486.64255793649</v>
       </c>
       <c r="B50">
-        <v>61393.47345276444</v>
+        <v>148075.50096267776</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>432559.42325158732</v>
+        <v>302218.93927103176</v>
       </c>
       <c r="B51">
-        <v>61415.416563804676</v>
+        <v>148034.12056250742</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>428966.82807658729</v>
+        <v>302369.71967936511</v>
       </c>
       <c r="B52">
-        <v>61259.486987606899</v>
+        <v>148070.06984904996</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>441644.38171031745</v>
+        <v>302264.29966507934</v>
       </c>
       <c r="B53">
-        <v>61883.105882979253</v>
+        <v>148069.72859751078</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>441632.55415476189</v>
+        <v>302488.81767936505</v>
       </c>
       <c r="B54">
-        <v>61874.05136215427</v>
+        <v>148091.8328218408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>441532.67215476191</v>
+        <v>301994.18760119047</v>
       </c>
       <c r="B55">
-        <v>61866.738978796064</v>
+        <v>148009.60841379187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>441178.78811031749</v>
+        <v>302029.1148456349</v>
       </c>
       <c r="B56">
-        <v>61853.044643082132</v>
+        <v>148031.39250846562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
